--- a/Data/vegetacion.xlsx
+++ b/Data/vegetacion.xlsx
@@ -49,13 +49,13 @@
     <t xml:space="preserve">DAP</t>
   </si>
   <si>
-    <t xml:space="preserve">Altura</t>
+    <t xml:space="preserve">Height</t>
   </si>
   <si>
     <t xml:space="preserve">CopaNS</t>
   </si>
   <si>
-    <t xml:space="preserve">CopEW</t>
+    <t xml:space="preserve">CopaEW</t>
   </si>
   <si>
     <t xml:space="preserve">distanciacopas</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">diamcopa</t>
   </si>
   <si>
-    <t xml:space="preserve">coberturacopa</t>
+    <t xml:space="preserve">coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">areabasal</t>
+    <t xml:space="preserve">basal_area</t>
   </si>
   <si>
     <t xml:space="preserve">volumenamdera</t>
@@ -397,7 +397,7 @@
   <dimension ref="A1:Q407"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
